--- a/熊六刀两两对比矩阵.xlsx
+++ b/熊六刀两两对比矩阵.xlsx
@@ -172,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,11 +217,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,6 +276,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,14 +563,15 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
@@ -608,16 +635,16 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -635,7 +662,7 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -655,7 +682,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -683,13 +710,13 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -708,7 +735,7 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -728,7 +755,7 @@
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -749,7 +776,7 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -758,21 +785,21 @@
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="K11" s="3" t="s">
@@ -784,12 +811,12 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="J12" s="2" t="s">
@@ -809,7 +836,7 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="4"/>
@@ -830,7 +857,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
@@ -850,7 +877,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
@@ -921,7 +948,7 @@
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="4"/>
@@ -933,7 +960,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -944,7 +971,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
